--- a/static/result/report_byadzone.xlsx
+++ b/static/result/report_byadzone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -29,6 +29,9 @@
     <t>广告位点击数</t>
   </si>
   <si>
+    <t>广告展现数</t>
+  </si>
+  <si>
     <t>广告点击数</t>
   </si>
   <si>
@@ -41,34 +44,7 @@
     <t>均价</t>
   </si>
   <si>
-    <t>39.51%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>34.51%</t>
-  </si>
-  <si>
-    <t>35.63%</t>
-  </si>
-  <si>
-    <t>38.21%</t>
-  </si>
-  <si>
-    <t>39.38%</t>
-  </si>
-  <si>
-    <t>37.64%</t>
-  </si>
-  <si>
-    <t>32.09%</t>
-  </si>
-  <si>
-    <t>33.81%</t>
-  </si>
-  <si>
-    <t>41.47%</t>
+    <t>46.46%</t>
   </si>
 </sst>
 </file>
@@ -407,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +391,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,265 +416,40 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
-        <v>43613</v>
+        <v>43665</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3837</v>
       </c>
       <c r="D2" t="n">
-        <v>224111</v>
+        <v>198</v>
       </c>
       <c r="E2" t="n">
-        <v>88555</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19310.5</v>
+        <v>456</v>
+      </c>
+      <c r="F2" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>127408</v>
-      </c>
-      <c r="E3" t="n">
-        <v>46335</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10960.76</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89982</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31053</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6887.46</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>77339</v>
-      </c>
-      <c r="E5" t="n">
-        <v>27556</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3754.29</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>107783</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41188</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3770.92</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>194177</v>
-      </c>
-      <c r="E7" t="n">
-        <v>76470</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10792.94</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>307623</v>
-      </c>
-      <c r="E8" t="n">
-        <v>115804</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36384.11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>428897</v>
-      </c>
-      <c r="E9" t="n">
-        <v>137659</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="n">
-        <v>45959.18</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>445786</v>
-      </c>
-      <c r="E10" t="n">
-        <v>150749</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="n">
-        <v>65795.95</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>43613</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>446520</v>
-      </c>
-      <c r="E11" t="n">
-        <v>185193</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92080.83</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.5</v>
+        <v>22.94</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>196.73</v>
       </c>
     </row>
   </sheetData>
